--- a/classfiers/sota/corelation/corelation-metrics/correlations-chain.xlsx
+++ b/classfiers/sota/corelation/corelation-metrics/correlations-chain.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.04825129109149388</v>
+        <v>-0.01437393967146818</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01764842716001165</v>
+        <v>-0.01353621564658715</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04694247045767869</v>
+        <v>0.0008911271178945798</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1400818818635166</v>
+        <v>0.007017549004609395</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.005761389057736489</v>
+        <v>0.1373717366384515</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.009799622876994691</v>
+        <v>0.02158987780391591</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.05764064470474816</v>
+        <v>-0.1213440217186399</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.03992323342749214</v>
+        <v>0.05603140323088421</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.004372762186780546</v>
+        <v>0.239171984896363</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.09104550533581224</v>
+        <v>0.05882129830130732</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01350735709259259</v>
+        <v>-0.06308984781829111</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.02155660715266262</v>
+        <v>-0.07036578030567615</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1025962875218005</v>
+        <v>0.03605035088716545</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1570043143605339</v>
+        <v>0.4632498438218808</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2206397557900127</v>
+        <v>0.4474605383754627</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2252190622647866</v>
+        <v>0.02732880437208831</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.2192747797162493</v>
+        <v>0.0433324327153948</v>
       </c>
     </row>
   </sheetData>
